--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1585375.494460782</v>
+        <v>1593252.403329508</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2996990.669477575</v>
+        <v>2996990.669477578</v>
       </c>
     </row>
     <row r="8">
@@ -1379,52 +1379,52 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>27.81845872608313</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.769000231499839</v>
+      </c>
+      <c r="R11" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="H11" t="n">
+      <c r="S11" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="I11" t="n">
+      <c r="T11" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>22.04945849458328</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,76 +1446,76 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>27.81845872608313</v>
-      </c>
-      <c r="U12" t="n">
-        <v>31.58317294060302</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.770665883245245</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="I13" t="n">
+      <c r="R13" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="J13" t="n">
+      <c r="S13" t="n">
         <v>31.58317294060302</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.04779284283789</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>72.93482011700921</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>72.9348201170092</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.939463498672165</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.99535661833703</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="V18" t="n">
-        <v>82.80519995119121</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>72.9348201170092</v>
       </c>
       <c r="X18" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15.73811753464252</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>57.19670258236668</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>72.9348201170092</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>13.66274170114648</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.43518313263396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>111.6992508657124</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>170.8502025108081</v>
       </c>
       <c r="T20" t="n">
-        <v>184.9259824886941</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>213.1757858323992</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>128.3633165744301</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>134.5386319128784</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>37.25915107049268</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>187.7715150055375</v>
       </c>
       <c r="V21" t="n">
-        <v>70.55235778106197</v>
+        <v>194.630720073988</v>
       </c>
       <c r="W21" t="n">
         <v>213.5251160854823</v>
@@ -2226,7 +2226,7 @@
         <v>167.6031181280402</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.5128287018671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>92.14078602849963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>99.31616776836684</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>47.99217617625709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>185.8467309615349</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.069544225594788</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>177.214289989524</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>168.3460780804167</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>107.7393064511605</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>209.2158414178473</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>130.5786874983265</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>105.3152540746495</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>80.80603738098246</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>102.9394009033947</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>95.21370567322143</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>47.26682136142586</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>58.02802266265392</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>85.92608677180154</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>158.0349172048324</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>183.8115705909856</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>190.6707756594361</v>
       </c>
       <c r="W24" t="n">
-        <v>209.5651716709304</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>163.6431737134883</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.4856615282231</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>68.06947595516661</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.886786546983</v>
       </c>
       <c r="T25" t="n">
-        <v>172.862080131325</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>183.5798438990479</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,70 +2555,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>109.7462041723936</v>
       </c>
       <c r="C27" t="n">
-        <v>26.38088686566606</v>
+        <v>115.921519510842</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>100.8581009779273</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.37085467516944</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>114.8961916263641</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>143.3777492173479</v>
       </c>
       <c r="U27" t="n">
-        <v>169.1544026035011</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>176.0136076719516</v>
+        <v>73.49305366655537</v>
       </c>
       <c r="W27" t="n">
         <v>194.9080036834459</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>148.9860057260038</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>148.8957162998306</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.0450007044636</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.4598416211541</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>91.82849354073866</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>34.46963108102047</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>111.203999880985</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.66349544978456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.37506377422066</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>117.3015302312178</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>168.9226759115634</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>137.850804328057</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>176.65910147992</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2883,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G30" t="n">
-        <v>23.10068338558301</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C31" t="n">
-        <v>26.73701578884488</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>53.74814558083112</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7737642593446</v>
+        <v>48.00919528297211</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>240.3643308631976</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>96.20836622666138</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>52.2903498722397</v>
       </c>
       <c r="C33" t="n">
-        <v>58.46566521068834</v>
+        <v>58.4656652106881</v>
       </c>
       <c r="D33" t="n">
         <v>33.20223178701112</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621018</v>
+        <v>57.44033732621021</v>
       </c>
       <c r="T33" t="n">
         <v>85.92189491719397</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
@@ -3241,19 +3241,19 @@
         <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>20.70447646849436</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>62.92396366655623</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="35">
@@ -3266,20 +3266,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>148.6193384723778</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>209.431115937056</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>209.431115937056</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
         <v>96.78462534974888</v>
@@ -3320,13 +3320,13 @@
         <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>47.14280350569099</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3351,13 +3351,13 @@
         <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>8.985175133279771</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>23.02326578171659</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
         <v>87.92928445832514</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.76771934957453</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
         <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>81.4329275361975</v>
       </c>
       <c r="Y37" t="n">
         <v>106.3492091155983</v>
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>135.8262886962477</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>102.2003897484614</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>75.21951706699146</v>
+      </c>
+      <c r="W38" t="n">
         <v>201.4304119158185</v>
       </c>
-      <c r="D38" t="n">
+      <c r="X38" t="n">
         <v>201.4304119158185</v>
-      </c>
-      <c r="E38" t="n">
-        <v>201.4304119158185</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>41.59361811920516</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>58.2576838279228</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>49.36958063345642</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.0680173412661</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.959944414551927</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>59.93719879419594</v>
+        <v>18.02113384391171</v>
       </c>
       <c r="T39" t="n">
-        <v>91.88922887287708</v>
+        <v>91.88922887287707</v>
       </c>
       <c r="U39" t="n">
         <v>117.6658822590303</v>
@@ -3645,10 +3645,10 @@
         <v>143.4194833389751</v>
       </c>
       <c r="X39" t="n">
-        <v>97.49748538153295</v>
+        <v>97.49748538153294</v>
       </c>
       <c r="Y39" t="n">
-        <v>97.40719595535984</v>
+        <v>97.40719595535982</v>
       </c>
     </row>
     <row r="40">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.55648035999276</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>58.9713212766833</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.33997319626782</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>37.14554820098672</v>
+        <v>37.14554820098671</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>59.71547953651422</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>53.95167268549504</v>
       </c>
       <c r="I40" t="n">
-        <v>47.17497510531376</v>
+        <v>47.17497510531375</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.01789155522496</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.7410982150277</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>119.670089606337</v>
       </c>
       <c r="U40" t="n">
-        <v>178.0435295345464</v>
+        <v>178.0435295345463</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4.832919530621122</v>
       </c>
       <c r="W40" t="n">
-        <v>97.48385477837908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>117.4341555670926</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>110.3091535301503</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>158.2090889264678</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>158.2090889264678</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>139.3505655264328</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>158.2090889264678</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>158.2090889264678</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T42" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2.059931776220091</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>20.62096140205668</v>
       </c>
       <c r="X42" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>116.2860629258893</v>
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D43" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>26.15528686268836</v>
       </c>
       <c r="G43" t="n">
         <v>78.59434650704368</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>39.13103032578137</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>158.2090889264678</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>158.2090889264678</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="C11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="D11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="E11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="F11" t="n">
-        <v>98.23323850374226</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="G11" t="n">
-        <v>66.33104361424425</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="H11" t="n">
-        <v>34.42884872474625</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="I11" t="n">
         <v>2.526653835248242</v>
@@ -5042,10 +5042,10 @@
         <v>2.526653835248242</v>
       </c>
       <c r="K11" t="n">
-        <v>33.79399504644523</v>
+        <v>32.53066812882111</v>
       </c>
       <c r="L11" t="n">
-        <v>65.06133625764222</v>
+        <v>63.7980093400181</v>
       </c>
       <c r="M11" t="n">
         <v>95.06535055121509</v>
@@ -5060,31 +5060,31 @@
         <v>126.3326917624121</v>
       </c>
       <c r="Q11" t="n">
-        <v>126.3326917624121</v>
+        <v>120.5054188013011</v>
       </c>
       <c r="R11" t="n">
-        <v>126.3326917624121</v>
+        <v>88.60322391180313</v>
       </c>
       <c r="S11" t="n">
-        <v>126.3326917624121</v>
+        <v>56.70102902230512</v>
       </c>
       <c r="T11" t="n">
-        <v>126.3326917624121</v>
+        <v>24.79883413280712</v>
       </c>
       <c r="U11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="V11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="W11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="X11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="Y11" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.42884872474625</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="C12" t="n">
-        <v>34.42884872474625</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="D12" t="n">
-        <v>34.42884872474625</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="E12" t="n">
-        <v>34.42884872474625</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="F12" t="n">
         <v>34.42884872474625</v>
       </c>
       <c r="G12" t="n">
-        <v>34.42884872474625</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="H12" t="n">
-        <v>34.42884872474625</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="I12" t="n">
         <v>2.526653835248242</v>
@@ -5121,46 +5121,46 @@
         <v>2.526653835248242</v>
       </c>
       <c r="K12" t="n">
-        <v>2.526653835248242</v>
+        <v>33.79399504644523</v>
       </c>
       <c r="L12" t="n">
         <v>33.79399504644523</v>
       </c>
       <c r="M12" t="n">
-        <v>65.06133625764222</v>
+        <v>63.7980093400181</v>
       </c>
       <c r="N12" t="n">
-        <v>65.06133625764222</v>
+        <v>95.06535055121509</v>
       </c>
       <c r="O12" t="n">
         <v>95.06535055121509</v>
       </c>
       <c r="P12" t="n">
-        <v>95.06535055121509</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Q12" t="n">
         <v>126.3326917624121</v>
       </c>
       <c r="R12" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="S12" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="T12" t="n">
-        <v>98.23323850374226</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="U12" t="n">
-        <v>66.33104361424425</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="V12" t="n">
-        <v>66.33104361424425</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="W12" t="n">
-        <v>66.33104361424425</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="X12" t="n">
-        <v>66.33104361424425</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="Y12" t="n">
         <v>66.33104361424425</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="C13" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="D13" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="E13" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="F13" t="n">
-        <v>126.3326917624121</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="G13" t="n">
-        <v>116.4633322843866</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="H13" t="n">
-        <v>84.56113739488858</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="I13" t="n">
-        <v>52.65894250539057</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="J13" t="n">
-        <v>20.75674761589257</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="K13" t="n">
         <v>2.526653835248242</v>
@@ -5218,31 +5218,31 @@
         <v>126.3326917624121</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="R13" t="n">
-        <v>126.3326917624121</v>
+        <v>62.52830198341607</v>
       </c>
       <c r="S13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="T13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="U13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="V13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="W13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="X13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.3326917624121</v>
+        <v>30.62610709391807</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>43.15042425981653</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D14" t="n">
         <v>3.166710156947247</v>
@@ -5279,19 +5279,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L14" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M14" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
@@ -5300,25 +5300,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W14" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X14" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y14" t="n">
         <v>43.15042425981653</v>
@@ -5367,13 +5367,13 @@
         <v>81.54278654139161</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P15" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
@@ -5400,7 +5400,7 @@
         <v>38.38436553875449</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E16" t="n">
         <v>3.166710156947247</v>
@@ -5437,19 +5437,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>16.92076600828629</v>
       </c>
       <c r="L16" t="n">
-        <v>42.35474834916943</v>
+        <v>44.23489101599927</v>
       </c>
       <c r="M16" t="n">
-        <v>81.54278654139161</v>
+        <v>83.42292920822145</v>
       </c>
       <c r="N16" t="n">
-        <v>120.7308247336138</v>
+        <v>122.6109674004436</v>
       </c>
       <c r="O16" t="n">
-        <v>145.0701013685131</v>
+        <v>146.9502440353429</v>
       </c>
       <c r="P16" t="n">
         <v>158.3355078473624</v>
@@ -5464,22 +5464,22 @@
         <v>38.38436553875449</v>
       </c>
       <c r="T16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="C17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="D17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="E17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="F17" t="n">
-        <v>257.5492643330384</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="G17" t="n">
-        <v>173.907648220724</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="H17" t="n">
-        <v>90.26603210840966</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="I17" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="J17" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="K17" t="n">
-        <v>88.60156394777459</v>
+        <v>88.60156394777461</v>
       </c>
       <c r="L17" t="n">
         <v>170.5787118994539</v>
       </c>
       <c r="M17" t="n">
+        <v>170.5787118994539</v>
+      </c>
+      <c r="N17" t="n">
         <v>252.5558598511332</v>
-      </c>
-      <c r="N17" t="n">
-        <v>331.2207998047649</v>
       </c>
       <c r="O17" t="n">
         <v>331.2207998047649</v>
@@ -5537,28 +5537,28 @@
         <v>331.2207998047649</v>
       </c>
       <c r="R17" t="n">
-        <v>331.2207998047649</v>
+        <v>247.5791836924505</v>
       </c>
       <c r="S17" t="n">
-        <v>331.2207998047649</v>
+        <v>163.9375675801361</v>
       </c>
       <c r="T17" t="n">
-        <v>331.2207998047649</v>
+        <v>80.29595146782177</v>
       </c>
       <c r="U17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="V17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="W17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="X17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.26603210840966</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="C18" t="n">
-        <v>90.26603210840966</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="D18" t="n">
-        <v>90.26603210840966</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="E18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="F18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="G18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="H18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="I18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="J18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="K18" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="L18" t="n">
-        <v>6.624415996095297</v>
+        <v>88.60156394777461</v>
       </c>
       <c r="M18" t="n">
-        <v>15.89479743639768</v>
+        <v>170.5787118994539</v>
       </c>
       <c r="N18" t="n">
-        <v>97.87194538807698</v>
+        <v>252.5558598511332</v>
       </c>
       <c r="O18" t="n">
-        <v>179.8490933397563</v>
+        <v>331.2207998047649</v>
       </c>
       <c r="P18" t="n">
-        <v>261.8262412914356</v>
+        <v>331.2207998047649</v>
       </c>
       <c r="Q18" t="n">
         <v>331.2207998047649</v>
       </c>
       <c r="R18" t="n">
-        <v>266.5790254428082</v>
+        <v>331.2207998047649</v>
       </c>
       <c r="S18" t="n">
-        <v>266.5790254428082</v>
+        <v>247.5791836924505</v>
       </c>
       <c r="T18" t="n">
-        <v>266.5790254428082</v>
+        <v>247.5791836924505</v>
       </c>
       <c r="U18" t="n">
-        <v>266.5790254428082</v>
+        <v>163.9375675801361</v>
       </c>
       <c r="V18" t="n">
-        <v>182.9374093304939</v>
+        <v>80.29595146782177</v>
       </c>
       <c r="W18" t="n">
-        <v>182.9374093304939</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="X18" t="n">
-        <v>99.29579321817953</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="Y18" t="n">
-        <v>99.29579321817953</v>
+        <v>6.624415996095299</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="C19" t="n">
-        <v>247.5791836924505</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="D19" t="n">
-        <v>247.5791836924505</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="E19" t="n">
-        <v>247.5791836924505</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="F19" t="n">
-        <v>163.9375675801361</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9375675801361</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="H19" t="n">
-        <v>148.0404791613053</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="I19" t="n">
-        <v>64.39886304899093</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="J19" t="n">
-        <v>6.624415996095297</v>
+        <v>6.624415996095299</v>
       </c>
       <c r="K19" t="n">
-        <v>20.37847184743435</v>
+        <v>20.3784718474343</v>
       </c>
       <c r="L19" t="n">
-        <v>83.49344961411038</v>
+        <v>83.49344961411035</v>
       </c>
       <c r="M19" t="n">
         <v>158.4823405652956</v>
@@ -5698,25 +5698,25 @@
         <v>331.2207998047649</v>
       </c>
       <c r="S19" t="n">
-        <v>331.2207998047649</v>
+        <v>247.5791836924505</v>
       </c>
       <c r="T19" t="n">
-        <v>331.2207998047649</v>
+        <v>163.9375675801361</v>
       </c>
       <c r="U19" t="n">
-        <v>331.2207998047649</v>
+        <v>80.29595146782177</v>
       </c>
       <c r="V19" t="n">
-        <v>331.2207998047649</v>
+        <v>80.29595146782177</v>
       </c>
       <c r="W19" t="n">
-        <v>331.2207998047649</v>
+        <v>80.29595146782177</v>
       </c>
       <c r="X19" t="n">
-        <v>331.2207998047649</v>
+        <v>80.29595146782177</v>
       </c>
       <c r="Y19" t="n">
-        <v>331.2207998047649</v>
+        <v>6.624415996095299</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>276.53066894739</v>
+        <v>304.5836400903067</v>
       </c>
       <c r="C20" t="n">
-        <v>276.53066894739</v>
+        <v>61.13486344620662</v>
       </c>
       <c r="D20" t="n">
-        <v>276.53066894739</v>
+        <v>61.13486344620662</v>
       </c>
       <c r="E20" t="n">
-        <v>276.53066894739</v>
+        <v>61.13486344620662</v>
       </c>
       <c r="F20" t="n">
-        <v>33.08189230328998</v>
+        <v>61.13486344620662</v>
       </c>
       <c r="G20" t="n">
-        <v>33.08189230328998</v>
+        <v>61.13486344620662</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>61.13486344620662</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>851.229629383654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>678.6536672515247</v>
+        <v>791.4811933785069</v>
       </c>
       <c r="T20" t="n">
-        <v>491.8597455457731</v>
+        <v>791.4811933785069</v>
       </c>
       <c r="U20" t="n">
-        <v>276.53066894739</v>
+        <v>791.4811933785069</v>
       </c>
       <c r="V20" t="n">
-        <v>276.53066894739</v>
+        <v>791.4811933785069</v>
       </c>
       <c r="W20" t="n">
-        <v>276.53066894739</v>
+        <v>791.4811933785069</v>
       </c>
       <c r="X20" t="n">
-        <v>276.53066894739</v>
+        <v>791.4811933785069</v>
       </c>
       <c r="Y20" t="n">
-        <v>276.53066894739</v>
+        <v>548.0324167344068</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>192.81425723483</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>56.91664924202351</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>56.91664924202351</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>56.91664924202351</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5865,16 @@
         <v>774.3889585353458</v>
       </c>
       <c r="V21" t="n">
-        <v>703.1239506756872</v>
+        <v>577.7922715919235</v>
       </c>
       <c r="W21" t="n">
-        <v>487.442015235806</v>
+        <v>362.1103361520424</v>
       </c>
       <c r="X21" t="n">
-        <v>318.1459363185937</v>
+        <v>192.81425723483</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.9410588419603</v>
+        <v>192.81425723483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>720.6083788665362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="C22" t="n">
-        <v>627.5368778276477</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="D22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>627.5368778276477</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>643.2782493247065</v>
+        <v>35.02251460727162</v>
       </c>
       <c r="L22" t="n">
-        <v>708.3805427371024</v>
+        <v>100.1248080196675</v>
       </c>
       <c r="M22" t="n">
-        <v>785.3567493340074</v>
+        <v>177.1010146165726</v>
       </c>
       <c r="N22" t="n">
-        <v>866.8357683941266</v>
+        <v>258.5800336766919</v>
       </c>
       <c r="O22" t="n">
-        <v>928.9632134337088</v>
+        <v>320.7074787162741</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>355.8014207932015</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>307.3244751606186</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>307.3244751606186</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="W22" t="n">
-        <v>720.6083788665362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="X22" t="n">
-        <v>720.6083788665362</v>
+        <v>119.6005044924015</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.6083788665362</v>
+        <v>119.6005044924015</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.38169283303574</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="C23" t="n">
-        <v>22.38169283303574</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="D23" t="n">
-        <v>22.38169283303574</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>676.2252399139852</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>432.7764632698852</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>189.3276866257852</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="U23" t="n">
-        <v>752.7280227653359</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="V23" t="n">
-        <v>509.2792461212359</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="W23" t="n">
-        <v>265.8304694771358</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="X23" t="n">
-        <v>22.38169283303574</v>
+        <v>855.2295732367368</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.38169283303574</v>
+        <v>855.2295732367368</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>587.0790288597083</v>
+        <v>115.456603386194</v>
       </c>
       <c r="C24" t="n">
-        <v>455.1813647199845</v>
+        <v>115.456603386194</v>
       </c>
       <c r="D24" t="n">
-        <v>348.8023202001364</v>
+        <v>115.456603386194</v>
       </c>
       <c r="E24" t="n">
-        <v>267.180060219346</v>
+        <v>115.456603386194</v>
       </c>
       <c r="F24" t="n">
-        <v>163.2008673876342</v>
+        <v>115.456603386194</v>
       </c>
       <c r="G24" t="n">
-        <v>67.02540711165298</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>67.02540711165298</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>905.4429912049252</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>818.6489641627014</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>659.0177346628707</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>473.349481540663</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>280.7527384503235</v>
       </c>
       <c r="W24" t="n">
-        <v>752.3751639238378</v>
+        <v>280.7527384503235</v>
       </c>
       <c r="X24" t="n">
-        <v>587.0790288597083</v>
+        <v>115.456603386194</v>
       </c>
       <c r="Y24" t="n">
-        <v>587.0790288597083</v>
+        <v>115.456603386194</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>672.7718544245694</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>672.7718544245694</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>672.7718544245694</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>672.7718544245694</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>604.0148080052091</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>604.0148080052091</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>604.0148080052091</v>
       </c>
       <c r="K25" t="n">
-        <v>38.94285957767802</v>
+        <v>623.6765244726745</v>
       </c>
       <c r="L25" t="n">
-        <v>107.9654979604803</v>
+        <v>692.6991628554767</v>
       </c>
       <c r="M25" t="n">
-        <v>188.8620495277918</v>
+        <v>773.5957144227882</v>
       </c>
       <c r="N25" t="n">
-        <v>274.2614135583174</v>
+        <v>858.9950784533138</v>
       </c>
       <c r="O25" t="n">
-        <v>340.309203568306</v>
+        <v>925.0428684633024</v>
       </c>
       <c r="P25" t="n">
-        <v>379.3234906156399</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>379.3234906156399</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>379.3234906156399</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>379.3234906156399</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="T25" t="n">
-        <v>204.7153288668268</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="U25" t="n">
-        <v>204.7153288668268</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="V25" t="n">
-        <v>204.7153288668268</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7153288668268</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>780.3331286955018</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>780.3331286955018</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6263,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>147.8053732552565</v>
+        <v>136.3735870605582</v>
       </c>
       <c r="C27" t="n">
-        <v>121.1580127848867</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>121.1580127848867</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
         <v>656.0584510084244</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>920.2482113943034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>804.1914521757539</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>804.1914521757539</v>
+        <v>819.2311462001838</v>
       </c>
       <c r="U27" t="n">
-        <v>633.3284192429244</v>
+        <v>819.2311462001838</v>
       </c>
       <c r="V27" t="n">
-        <v>455.5368963419631</v>
+        <v>744.9957384561885</v>
       </c>
       <c r="W27" t="n">
-        <v>258.660124944543</v>
+        <v>548.1189670587684</v>
       </c>
       <c r="X27" t="n">
-        <v>258.660124944543</v>
+        <v>397.6280521840171</v>
       </c>
       <c r="Y27" t="n">
-        <v>258.660124944543</v>
+        <v>247.2283387498447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.6127947888923</v>
+        <v>763.7564083532785</v>
       </c>
       <c r="C28" t="n">
-        <v>112.0371971917669</v>
+        <v>763.7564083532785</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>763.7564083532785</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>763.7564083532785</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9385991805306</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>616.6113265734749</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>616.6113265734749</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>516.9512301595511</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>516.9512301595511</v>
       </c>
       <c r="K28" t="n">
-        <v>53.45345588528766</v>
+        <v>551.123542934626</v>
       </c>
       <c r="L28" t="n">
-        <v>136.9866905756996</v>
+        <v>634.656777625038</v>
       </c>
       <c r="M28" t="n">
-        <v>232.3938384506207</v>
+        <v>730.0639254999592</v>
       </c>
       <c r="N28" t="n">
-        <v>332.303798788756</v>
+        <v>829.9738858380945</v>
       </c>
       <c r="O28" t="n">
-        <v>412.8621851063542</v>
+        <v>910.5322721556927</v>
       </c>
       <c r="P28" t="n">
-        <v>466.3870684612978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>466.3870684612978</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="R28" t="n">
-        <v>466.3870684612978</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="S28" t="n">
-        <v>466.3870684612978</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="T28" t="n">
-        <v>466.3870684612978</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="U28" t="n">
-        <v>466.3870684612978</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="V28" t="n">
-        <v>466.3870684612978</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="W28" t="n">
-        <v>347.9006742883505</v>
+        <v>934.3853739205143</v>
       </c>
       <c r="X28" t="n">
-        <v>347.9006742883505</v>
+        <v>763.7564083532785</v>
       </c>
       <c r="Y28" t="n">
-        <v>347.9006742883505</v>
+        <v>763.7564083532785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>726.6853020361056</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>726.6853020361056</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>726.6853020361056</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>726.6853020361056</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>587.4420653410984</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>343.9932886969984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>116.4862499716049</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="W29" t="n">
-        <v>726.6853020361056</v>
+        <v>928.071009890917</v>
       </c>
       <c r="X29" t="n">
-        <v>726.6853020361056</v>
+        <v>684.6222332468169</v>
       </c>
       <c r="Y29" t="n">
-        <v>726.6853020361056</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>73.7529229095453</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201375</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6579,13 @@
         <v>586.664697007051</v>
       </c>
       <c r="W30" t="n">
-        <v>447.824142074433</v>
+        <v>447.8241420744328</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644835</v>
       </c>
       <c r="Y30" t="n">
-        <v>263.0059466951132</v>
+        <v>263.005946695113</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>282.6269704052015</v>
+        <v>175.5806094048019</v>
       </c>
       <c r="C31" t="n">
-        <v>255.6198837498027</v>
+        <v>122.0412282724784</v>
       </c>
       <c r="D31" t="n">
-        <v>255.6198837498027</v>
+        <v>122.0412282724784</v>
       </c>
       <c r="E31" t="n">
-        <v>223.103591962993</v>
+        <v>122.0412282724784</v>
       </c>
       <c r="F31" t="n">
-        <v>223.103591962993</v>
+        <v>122.0412282724784</v>
       </c>
       <c r="G31" t="n">
-        <v>168.8125358207394</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="H31" t="n">
-        <v>168.8125358207394</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>127.1886558716175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>147.8634729959628</v>
+        <v>39.95596023455803</v>
       </c>
       <c r="K31" t="n">
-        <v>238.9170815281902</v>
+        <v>131.0095687667854</v>
       </c>
       <c r="L31" t="n">
-        <v>379.3316119757545</v>
+        <v>271.4240992143497</v>
       </c>
       <c r="M31" t="n">
-        <v>531.620055607828</v>
+        <v>423.7125428464232</v>
       </c>
       <c r="N31" t="n">
-        <v>688.4113117031156</v>
+        <v>580.5037989417109</v>
       </c>
       <c r="O31" t="n">
-        <v>825.8509937778663</v>
+        <v>717.9434810164615</v>
       </c>
       <c r="P31" t="n">
-        <v>936.2571728899622</v>
+        <v>828.3496601285574</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="R31" t="n">
-        <v>900.3697235919071</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="S31" t="n">
-        <v>789.487133430953</v>
+        <v>807.6555060997646</v>
       </c>
       <c r="T31" t="n">
-        <v>674.6358650969592</v>
+        <v>807.6555060997646</v>
       </c>
       <c r="U31" t="n">
-        <v>674.6358650969592</v>
+        <v>633.8411671312158</v>
       </c>
       <c r="V31" t="n">
-        <v>674.6358650969592</v>
+        <v>633.8411671312158</v>
       </c>
       <c r="W31" t="n">
-        <v>500.615496855582</v>
+        <v>459.8207988898386</v>
       </c>
       <c r="X31" t="n">
-        <v>388.0227477531482</v>
+        <v>347.2280497874048</v>
       </c>
       <c r="Y31" t="n">
-        <v>282.6269704052015</v>
+        <v>241.8322724394581</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>748.3910699626491</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="C32" t="n">
-        <v>748.3910699626491</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="D32" t="n">
-        <v>505.5221731514821</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="E32" t="n">
-        <v>262.073396507382</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>343.9932886969984</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>116.4862499716049</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="V32" t="n">
-        <v>748.3910699626491</v>
+        <v>928.071009890917</v>
       </c>
       <c r="W32" t="n">
-        <v>748.3910699626491</v>
+        <v>830.8908419851984</v>
       </c>
       <c r="X32" t="n">
-        <v>748.3910699626491</v>
+        <v>587.4420653410984</v>
       </c>
       <c r="Y32" t="n">
-        <v>748.3910699626491</v>
+        <v>587.4420653410984</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706289</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850851</v>
+        <v>151.131183985085</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194173</v>
+        <v>117.5935761194174</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954529</v>
+        <v>73.7529229095453</v>
       </c>
       <c r="F33" t="n">
         <v>42.61516673201373</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6813,16 +6813,16 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070514</v>
+        <v>586.664697007051</v>
       </c>
       <c r="W33" t="n">
-        <v>447.8241420744332</v>
+        <v>447.824142074433</v>
       </c>
       <c r="X33" t="n">
-        <v>355.3694436644839</v>
+        <v>355.3694436644837</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951134</v>
+        <v>263.0059466951132</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>187.5025365816273</v>
+        <v>153.8058450493579</v>
       </c>
       <c r="C34" t="n">
-        <v>133.9631554493039</v>
+        <v>100.2664639170344</v>
       </c>
       <c r="D34" t="n">
-        <v>99.24331783255167</v>
+        <v>100.2664639170344</v>
       </c>
       <c r="E34" t="n">
-        <v>99.24331783255167</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="F34" t="n">
         <v>67.75017213022478</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>856.1496427492314</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="S34" t="n">
-        <v>745.2670525882772</v>
+        <v>681.5796206695481</v>
       </c>
       <c r="T34" t="n">
-        <v>630.4157842542834</v>
+        <v>566.7283523355543</v>
       </c>
       <c r="U34" t="n">
-        <v>456.6014452857347</v>
+        <v>545.8147397411155</v>
       </c>
       <c r="V34" t="n">
-        <v>317.3137588754313</v>
+        <v>545.8147397411155</v>
       </c>
       <c r="W34" t="n">
-        <v>253.7541996162836</v>
+        <v>371.7943714997384</v>
       </c>
       <c r="X34" t="n">
-        <v>253.7541996162836</v>
+        <v>259.2016223973045</v>
       </c>
       <c r="Y34" t="n">
-        <v>253.7541996162836</v>
+        <v>153.8058450493579</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>439.8476527841686</v>
+        <v>589.9681966956614</v>
       </c>
       <c r="C35" t="n">
         <v>439.8476527841686</v>
       </c>
       <c r="D35" t="n">
-        <v>228.3010710295666</v>
+        <v>439.8476527841686</v>
       </c>
       <c r="E35" t="n">
         <v>228.3010710295666</v>
       </c>
       <c r="F35" t="n">
-        <v>16.75448927496448</v>
+        <v>228.3010710295666</v>
       </c>
       <c r="G35" t="n">
         <v>16.75448927496448</v>
@@ -6938,19 +6938,19 @@
         <v>16.75448927496448</v>
       </c>
       <c r="K35" t="n">
-        <v>119.7694951858868</v>
+        <v>95.26233503599272</v>
       </c>
       <c r="L35" t="n">
-        <v>299.8453467705454</v>
+        <v>275.3381866206513</v>
       </c>
       <c r="M35" t="n">
-        <v>507.1821515482309</v>
+        <v>482.6749913983368</v>
       </c>
       <c r="N35" t="n">
-        <v>713.0366737554702</v>
+        <v>688.5295136055761</v>
       </c>
       <c r="O35" t="n">
-        <v>748.0644084561732</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="P35" t="n">
         <v>837.7244637482241</v>
@@ -6959,28 +6959,28 @@
         <v>837.7244637482241</v>
       </c>
       <c r="R35" t="n">
-        <v>837.7244637482241</v>
+        <v>799.7106519253421</v>
       </c>
       <c r="S35" t="n">
-        <v>739.9622159201949</v>
+        <v>701.9484040973128</v>
       </c>
       <c r="T35" t="n">
-        <v>627.9820085185435</v>
+        <v>589.9681966956614</v>
       </c>
       <c r="U35" t="n">
-        <v>487.4666462242606</v>
+        <v>589.9681966956614</v>
       </c>
       <c r="V35" t="n">
-        <v>487.4666462242606</v>
+        <v>589.9681966956614</v>
       </c>
       <c r="W35" t="n">
-        <v>439.8476527841686</v>
+        <v>589.9681966956614</v>
       </c>
       <c r="X35" t="n">
-        <v>439.8476527841686</v>
+        <v>589.9681966956614</v>
       </c>
       <c r="Y35" t="n">
-        <v>439.8476527841686</v>
+        <v>589.9681966956614</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.2719764455363</v>
+        <v>122.4795915105618</v>
       </c>
       <c r="C36" t="n">
-        <v>98.18808275682991</v>
+        <v>61.39569782185546</v>
       </c>
       <c r="D36" t="n">
-        <v>62.62280868799932</v>
+        <v>25.83042375302486</v>
       </c>
       <c r="E36" t="n">
-        <v>16.75448927496448</v>
+        <v>25.83042375302486</v>
       </c>
       <c r="F36" t="n">
-        <v>16.75448927496448</v>
+        <v>25.83042375302486</v>
       </c>
       <c r="G36" t="n">
         <v>16.75448927496448</v>
@@ -7020,19 +7020,19 @@
         <v>16.75448927496448</v>
       </c>
       <c r="L36" t="n">
-        <v>16.75448927496448</v>
+        <v>224.09129405265</v>
       </c>
       <c r="M36" t="n">
-        <v>224.09129405265</v>
+        <v>431.4280988303354</v>
       </c>
       <c r="N36" t="n">
-        <v>431.4280988303354</v>
+        <v>638.7649036080209</v>
       </c>
       <c r="O36" t="n">
-        <v>638.7649036080209</v>
+        <v>768.3299052348948</v>
       </c>
       <c r="P36" t="n">
-        <v>821.4083812213717</v>
+        <v>768.3299052348948</v>
       </c>
       <c r="Q36" t="n">
         <v>837.7244637482241</v>
@@ -7041,25 +7041,25 @@
         <v>837.7244637482241</v>
       </c>
       <c r="S36" t="n">
-        <v>814.4686397262882</v>
+        <v>777.6762547913137</v>
       </c>
       <c r="T36" t="n">
-        <v>725.6511806774749</v>
+        <v>688.8587957425004</v>
       </c>
       <c r="U36" t="n">
-        <v>610.7966980062847</v>
+        <v>574.0043130713102</v>
       </c>
       <c r="V36" t="n">
-        <v>489.0137253669627</v>
+        <v>452.2213404319882</v>
       </c>
       <c r="W36" t="n">
-        <v>348.1455042311817</v>
+        <v>311.3531192962072</v>
       </c>
       <c r="X36" t="n">
-        <v>253.6631396180695</v>
+        <v>216.870754683095</v>
       </c>
       <c r="Y36" t="n">
-        <v>159.2719764455363</v>
+        <v>122.4795915105618</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.2214529958405</v>
+        <v>162.1610708613569</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2214529958405</v>
+        <v>106.5940235258706</v>
       </c>
       <c r="D37" t="n">
-        <v>167.2214529958405</v>
+        <v>106.5940235258706</v>
       </c>
       <c r="E37" t="n">
-        <v>167.2214529958405</v>
+        <v>106.5940235258706</v>
       </c>
       <c r="F37" t="n">
-        <v>167.2214529958405</v>
+        <v>73.07321162038096</v>
       </c>
       <c r="G37" t="n">
-        <v>110.902730650424</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="H37" t="n">
-        <v>60.40603542724916</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="I37" t="n">
         <v>16.75448927496448</v>
       </c>
       <c r="J37" t="n">
-        <v>35.44199075358995</v>
+        <v>35.44199075358993</v>
       </c>
       <c r="K37" t="n">
         <v>124.5082836400974</v>
       </c>
       <c r="L37" t="n">
-        <v>262.9354984419418</v>
+        <v>262.9354984419419</v>
       </c>
       <c r="M37" t="n">
-        <v>413.2366264282955</v>
+        <v>413.2366264282956</v>
       </c>
       <c r="N37" t="n">
-        <v>568.0405668778633</v>
+        <v>568.0405668778634</v>
       </c>
       <c r="O37" t="n">
-        <v>703.492933306894</v>
+        <v>703.4929333068942</v>
       </c>
       <c r="P37" t="n">
-        <v>811.9117967732701</v>
+        <v>811.9117967732702</v>
       </c>
       <c r="Q37" t="n">
-        <v>837.7244637482241</v>
+        <v>837.7244637482243</v>
       </c>
       <c r="R37" t="n">
-        <v>837.7244637482241</v>
+        <v>772.0093656263323</v>
       </c>
       <c r="S37" t="n">
-        <v>724.8142073841071</v>
+        <v>772.0093656263323</v>
       </c>
       <c r="T37" t="n">
-        <v>607.9352728469505</v>
+        <v>772.0093656263323</v>
       </c>
       <c r="U37" t="n">
-        <v>607.9352728469505</v>
+        <v>596.1673604546207</v>
       </c>
       <c r="V37" t="n">
-        <v>466.6199202334843</v>
+        <v>596.1673604546207</v>
       </c>
       <c r="W37" t="n">
-        <v>290.5718857889444</v>
+        <v>420.1193260100808</v>
       </c>
       <c r="X37" t="n">
-        <v>290.5718857889444</v>
+        <v>337.8638436502853</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.148442237835</v>
+        <v>230.4404000991759</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>626.5096205769578</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="C38" t="n">
-        <v>423.0445580357271</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="D38" t="n">
-        <v>219.5794954944963</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="E38" t="n">
-        <v>16.11443295326548</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="F38" t="n">
-        <v>16.11443295326548</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="G38" t="n">
-        <v>16.11443295326548</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="H38" t="n">
-        <v>16.11443295326548</v>
+        <v>119.3471498709032</v>
       </c>
       <c r="I38" t="n">
         <v>16.11443295326548</v>
@@ -7175,19 +7175,19 @@
         <v>16.11443295326548</v>
       </c>
       <c r="K38" t="n">
-        <v>16.11443295326548</v>
+        <v>119.1294388641878</v>
       </c>
       <c r="L38" t="n">
-        <v>196.1902845379241</v>
+        <v>299.2052904488464</v>
       </c>
       <c r="M38" t="n">
-        <v>367.4505344319145</v>
+        <v>457.1105897239655</v>
       </c>
       <c r="N38" t="n">
-        <v>566.8666422285748</v>
+        <v>656.5266975206258</v>
       </c>
       <c r="O38" t="n">
-        <v>716.0615923712229</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="P38" t="n">
         <v>805.7216476632739</v>
@@ -7196,28 +7196,28 @@
         <v>805.7216476632739</v>
       </c>
       <c r="R38" t="n">
-        <v>763.707891987309</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="S38" t="n">
-        <v>763.707891987309</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="T38" t="n">
-        <v>763.707891987309</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="U38" t="n">
-        <v>763.707891987309</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="V38" t="n">
-        <v>763.707891987309</v>
+        <v>729.7423374945956</v>
       </c>
       <c r="W38" t="n">
-        <v>763.707891987309</v>
+        <v>526.2772749533649</v>
       </c>
       <c r="X38" t="n">
-        <v>763.707891987309</v>
+        <v>322.812212412134</v>
       </c>
       <c r="Y38" t="n">
-        <v>763.707891987309</v>
+        <v>322.812212412134</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.98269621938309</v>
+        <v>49.4760104843948</v>
       </c>
       <c r="C39" t="n">
-        <v>65.98269621938309</v>
+        <v>49.4760104843948</v>
       </c>
       <c r="D39" t="n">
-        <v>65.98269621938309</v>
+        <v>49.4760104843948</v>
       </c>
       <c r="E39" t="n">
-        <v>16.11443295326548</v>
+        <v>49.4760104843948</v>
       </c>
       <c r="F39" t="n">
-        <v>16.11443295326548</v>
+        <v>49.4760104843948</v>
       </c>
       <c r="G39" t="n">
-        <v>16.11443295326548</v>
+        <v>20.11437680634823</v>
       </c>
       <c r="H39" t="n">
         <v>16.11443295326548</v>
@@ -7254,19 +7254,19 @@
         <v>16.11443295326548</v>
       </c>
       <c r="K39" t="n">
-        <v>16.11443295326548</v>
+        <v>141.4719930111029</v>
       </c>
       <c r="L39" t="n">
-        <v>138.0787657599637</v>
+        <v>141.4719930111029</v>
       </c>
       <c r="M39" t="n">
-        <v>337.4948735566239</v>
+        <v>340.8881008077632</v>
       </c>
       <c r="N39" t="n">
-        <v>536.9109813532842</v>
+        <v>354.2675037399333</v>
       </c>
       <c r="O39" t="n">
-        <v>736.3270891499445</v>
+        <v>553.6836115365936</v>
       </c>
       <c r="P39" t="n">
         <v>736.3270891499445</v>
@@ -7278,25 +7278,25 @@
         <v>805.7216476632739</v>
       </c>
       <c r="S39" t="n">
-        <v>745.1790226186315</v>
+        <v>787.5184821643732</v>
       </c>
       <c r="T39" t="n">
-        <v>652.3616197167355</v>
+        <v>694.7010792624772</v>
       </c>
       <c r="U39" t="n">
-        <v>533.5071931924625</v>
+        <v>575.8466527382042</v>
       </c>
       <c r="V39" t="n">
-        <v>407.7242767000577</v>
+        <v>450.0637362457994</v>
       </c>
       <c r="W39" t="n">
-        <v>262.856111711194</v>
+        <v>305.1955712569358</v>
       </c>
       <c r="X39" t="n">
-        <v>164.3738032449991</v>
+        <v>206.7132627907409</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.98269621938309</v>
+        <v>108.3221557651249</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.2866787172054</v>
+        <v>316.416422853529</v>
       </c>
       <c r="C40" t="n">
-        <v>101.2866787172054</v>
+        <v>256.84943166496</v>
       </c>
       <c r="D40" t="n">
-        <v>101.2866787172054</v>
+        <v>216.1019839919622</v>
       </c>
       <c r="E40" t="n">
-        <v>101.2866787172054</v>
+        <v>216.1019839919622</v>
       </c>
       <c r="F40" t="n">
-        <v>63.76592295863292</v>
+        <v>178.5812282333897</v>
       </c>
       <c r="G40" t="n">
-        <v>63.76592295863292</v>
+        <v>118.2625620348905</v>
       </c>
       <c r="H40" t="n">
-        <v>63.76592295863292</v>
+        <v>63.76592295863291</v>
       </c>
       <c r="I40" t="n">
         <v>16.11443295326548</v>
       </c>
       <c r="J40" t="n">
-        <v>30.88158946148451</v>
+        <v>30.88158946148452</v>
       </c>
       <c r="K40" t="n">
         <v>116.0275373775856</v>
@@ -7339,7 +7339,7 @@
         <v>250.5344072090237</v>
       </c>
       <c r="M40" t="n">
-        <v>396.9151902249709</v>
+        <v>396.915190224971</v>
       </c>
       <c r="N40" t="n">
         <v>547.7987857041323</v>
@@ -7354,28 +7354,28 @@
         <v>805.7216476632739</v>
       </c>
       <c r="R40" t="n">
-        <v>736.0066056882991</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="S40" t="n">
-        <v>619.0964054710994</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="T40" t="n">
-        <v>498.21752708086</v>
+        <v>684.8427692730345</v>
       </c>
       <c r="U40" t="n">
-        <v>318.3755780560657</v>
+        <v>505.0008202482402</v>
       </c>
       <c r="V40" t="n">
-        <v>318.3755780560657</v>
+        <v>500.1190833486229</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9070378758848</v>
+        <v>500.1190833486229</v>
       </c>
       <c r="X40" t="n">
-        <v>101.2866787172054</v>
+        <v>500.1190833486229</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.2866787172054</v>
+        <v>388.6956959444307</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>332.2710481776888</v>
+      </c>
+      <c r="C41" t="n">
+        <v>332.2710481776888</v>
+      </c>
+      <c r="D41" t="n">
+        <v>332.2710481776888</v>
+      </c>
+      <c r="E41" t="n">
         <v>172.4638876459031</v>
       </c>
-      <c r="C41" t="n">
+      <c r="F41" t="n">
         <v>172.4638876459031</v>
       </c>
-      <c r="D41" t="n">
-        <v>12.65672711411743</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.65672711411743</v>
-      </c>
-      <c r="F41" t="n">
-        <v>12.65672711411743</v>
-      </c>
       <c r="G41" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="H41" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="I41" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="J41" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="K41" t="n">
         <v>115.6717330250398</v>
       </c>
       <c r="L41" t="n">
-        <v>272.298731062243</v>
+        <v>115.6717330250398</v>
       </c>
       <c r="M41" t="n">
-        <v>272.298731062243</v>
+        <v>272.2987310622429</v>
       </c>
       <c r="N41" t="n">
-        <v>428.9257290994461</v>
+        <v>428.925729099446</v>
       </c>
       <c r="O41" t="n">
-        <v>578.1206792420942</v>
+        <v>578.1206792420941</v>
       </c>
       <c r="P41" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="Q41" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="R41" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="S41" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="T41" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="U41" t="n">
-        <v>492.0782087094746</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="V41" t="n">
-        <v>332.2710481776888</v>
+        <v>492.0782087094744</v>
       </c>
       <c r="W41" t="n">
         <v>332.2710481776888</v>
       </c>
       <c r="X41" t="n">
-        <v>172.4638876459031</v>
+        <v>332.2710481776888</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4638876459031</v>
+        <v>332.2710481776888</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.0879233886584</v>
+        <v>188.6605297696781</v>
       </c>
       <c r="C42" t="n">
-        <v>61.0879233886584</v>
+        <v>188.6605297696781</v>
       </c>
       <c r="D42" t="n">
-        <v>61.0879233886584</v>
+        <v>130.0257492512704</v>
       </c>
       <c r="E42" t="n">
         <v>61.0879233886584</v>
@@ -7479,61 +7479,61 @@
         <v>61.0879233886584</v>
       </c>
       <c r="G42" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="H42" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="I42" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="J42" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="K42" t="n">
-        <v>12.65672711411743</v>
+        <v>138.0142871719548</v>
       </c>
       <c r="L42" t="n">
-        <v>93.56080308093254</v>
+        <v>294.641285209158</v>
       </c>
       <c r="M42" t="n">
-        <v>250.1878011181357</v>
+        <v>451.2682832463611</v>
       </c>
       <c r="N42" t="n">
-        <v>406.8147991553388</v>
+        <v>563.4417971925419</v>
       </c>
       <c r="O42" t="n">
-        <v>563.441797192542</v>
+        <v>563.4417971925419</v>
       </c>
       <c r="P42" t="n">
-        <v>563.441797192542</v>
+        <v>563.4417971925419</v>
       </c>
       <c r="Q42" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="R42" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="S42" t="n">
-        <v>632.8363557058714</v>
+        <v>549.7186402993837</v>
       </c>
       <c r="T42" t="n">
-        <v>520.949390207481</v>
+        <v>549.7186402993837</v>
       </c>
       <c r="U42" t="n">
-        <v>518.8686510395819</v>
+        <v>549.7186402993837</v>
       </c>
       <c r="V42" t="n">
-        <v>374.0161719506826</v>
+        <v>404.8661612104844</v>
       </c>
       <c r="W42" t="n">
-        <v>374.0161719506826</v>
+        <v>384.0369072690131</v>
       </c>
       <c r="X42" t="n">
-        <v>256.4643008879933</v>
+        <v>384.0369072690131</v>
       </c>
       <c r="Y42" t="n">
-        <v>139.0036312658829</v>
+        <v>266.5762376469027</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>195.3908324321781</v>
+        <v>197.1009913736576</v>
       </c>
       <c r="C43" t="n">
-        <v>195.3908324321781</v>
+        <v>118.4644375885943</v>
       </c>
       <c r="D43" t="n">
-        <v>135.5738221626859</v>
+        <v>118.4644375885943</v>
       </c>
       <c r="E43" t="n">
-        <v>135.5738221626859</v>
+        <v>118.4644375885943</v>
       </c>
       <c r="F43" t="n">
-        <v>135.5738221626859</v>
+        <v>92.04495590911105</v>
       </c>
       <c r="G43" t="n">
-        <v>56.18559336769225</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="H43" t="n">
-        <v>56.18559336769225</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="I43" t="n">
-        <v>16.65930010932722</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="J43" t="n">
-        <v>12.65672711411743</v>
+        <v>12.65672711411742</v>
       </c>
       <c r="K43" t="n">
         <v>79.11259672939433</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9293882600082</v>
+        <v>174.3017504594652</v>
       </c>
       <c r="M43" t="n">
-        <v>322.6200929751313</v>
+        <v>301.9924551745883</v>
       </c>
       <c r="N43" t="n">
-        <v>454.8136101534686</v>
+        <v>434.1859723529255</v>
       </c>
       <c r="O43" t="n">
-        <v>543.8256718070023</v>
+        <v>547.0279155107257</v>
       </c>
       <c r="P43" t="n">
-        <v>629.6341120021478</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="Q43" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="R43" t="n">
-        <v>632.8363557058714</v>
+        <v>632.8363557058713</v>
       </c>
       <c r="S43" t="n">
-        <v>632.8363557058714</v>
+        <v>496.8565928921771</v>
       </c>
       <c r="T43" t="n">
-        <v>492.8879147191376</v>
+        <v>356.9081519054433</v>
       </c>
       <c r="U43" t="n">
-        <v>492.8879147191376</v>
+        <v>197.1009913736576</v>
       </c>
       <c r="V43" t="n">
-        <v>492.8879147191376</v>
+        <v>197.1009913736576</v>
       </c>
       <c r="W43" t="n">
-        <v>333.0807541873519</v>
+        <v>197.1009913736576</v>
       </c>
       <c r="X43" t="n">
-        <v>195.3908324321781</v>
+        <v>197.1009913736576</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.3908324321781</v>
+        <v>197.1009913736576</v>
       </c>
     </row>
     <row r="44">
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>251.6730239855836</v>
+        <v>250.3969361900037</v>
       </c>
       <c r="L11" t="n">
         <v>267.3495879105902</v>
       </c>
       <c r="M11" t="n">
-        <v>260.6533183722958</v>
+        <v>261.9294061678758</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>169.424611914962</v>
       </c>
       <c r="L12" t="n">
-        <v>170.1375527204772</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>173.7172068626213</v>
+        <v>172.4411190670414</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>162.9248850239363</v>
       </c>
       <c r="O12" t="n">
-        <v>172.9033295894675</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>165.5575803549333</v>
       </c>
       <c r="Q12" t="n">
-        <v>171.5649470266245</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9015,16 +9015,16 @@
         <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.9663024837473</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,13 +9170,13 @@
         <v>318.5716149211785</v>
       </c>
       <c r="M17" t="n">
-        <v>313.1514331784639</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>308.8725989032896</v>
+        <v>312.2182635477822</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>309.5577467283854</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>221.3595797310654</v>
       </c>
       <c r="M18" t="n">
-        <v>151.4980555788894</v>
+        <v>224.9392338732096</v>
       </c>
       <c r="N18" t="n">
         <v>214.1469120345245</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4014443956357</v>
+        <v>222.0557797511431</v>
       </c>
       <c r="P18" t="n">
-        <v>216.7796073655215</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>299.3907053490495</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>265.4797616244169</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>347.9854957169302</v>
       </c>
       <c r="M36" t="n">
         <v>351.5651498590744</v>
@@ -10677,13 +10677,13 @@
         <v>340.7728280203893</v>
       </c>
       <c r="O36" t="n">
-        <v>352.0273603815004</v>
+        <v>273.4699834614888</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>156.4626655272866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>403.336384635344</v>
+        <v>389.8465355253728</v>
       </c>
       <c r="N38" t="n">
         <v>430.8434755124094</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>261.7506755442158</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>343.5644458378368</v>
       </c>
       <c r="N39" t="n">
-        <v>332.7721239991517</v>
+        <v>144.8562604996668</v>
       </c>
       <c r="O39" t="n">
         <v>344.0266563602629</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>393.9755038964551</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>388.5553221537406</v>
       </c>
       <c r="N41" t="n">
         <v>387.6221525230587</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>220.275668635243</v>
+        <v>296.763468706342</v>
       </c>
       <c r="M42" t="n">
         <v>300.3431228484861</v>
       </c>
       <c r="N42" t="n">
-        <v>289.5508010098011</v>
+        <v>244.6482918269503</v>
       </c>
       <c r="O42" t="n">
-        <v>300.8053333709123</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -23267,16 +23267,16 @@
         <v>377.7086710892168</v>
       </c>
       <c r="F11" t="n">
-        <v>374.8358880325833</v>
+        <v>402.6543467586665</v>
       </c>
       <c r="G11" t="n">
-        <v>379.4978655914871</v>
+        <v>411.0810385320901</v>
       </c>
       <c r="H11" t="n">
-        <v>303.6699301921192</v>
+        <v>335.2531031327222</v>
       </c>
       <c r="I11" t="n">
-        <v>174.6710176467579</v>
+        <v>206.2541905873609</v>
       </c>
       <c r="J11" t="n">
         <v>7.727590371567552</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.769000231499839</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>145.6474189581047</v>
+        <v>114.0642460175017</v>
       </c>
       <c r="S11" t="n">
-        <v>204.7983706032004</v>
+        <v>173.2151976625973</v>
       </c>
       <c r="T11" t="n">
-        <v>218.8741505810864</v>
+        <v>187.2909776404834</v>
       </c>
       <c r="U11" t="n">
-        <v>247.1239539247915</v>
+        <v>225.0744954302082</v>
       </c>
       <c r="V11" t="n">
         <v>323.5305594870899</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.7283117262193</v>
+        <v>162.3114846668224</v>
       </c>
       <c r="C12" t="n">
         <v>168.4868000052708</v>
@@ -23346,16 +23346,16 @@
         <v>153.423381472356</v>
       </c>
       <c r="F12" t="n">
-        <v>140.8475134103389</v>
+        <v>109.2643404697359</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1218181801657</v>
+        <v>101.5386452395626</v>
       </c>
       <c r="H12" t="n">
         <v>108.0137452534515</v>
       </c>
       <c r="I12" t="n">
-        <v>53.5917609277671</v>
+        <v>85.17493386837012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.93613516959817</v>
+        <v>64.35296222899515</v>
       </c>
       <c r="S12" t="n">
         <v>167.4614721207928</v>
       </c>
       <c r="T12" t="n">
-        <v>168.1245709856935</v>
+        <v>195.9430297117766</v>
       </c>
       <c r="U12" t="n">
-        <v>190.1365101573268</v>
+        <v>221.7196830979298</v>
       </c>
       <c r="V12" t="n">
         <v>228.5788881663803</v>
@@ -23403,7 +23403,7 @@
         <v>201.5512862204325</v>
       </c>
       <c r="Y12" t="n">
-        <v>201.4609967942594</v>
+        <v>173.6425380681763</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23416,7 @@
         <v>175.6102811988923</v>
       </c>
       <c r="C13" t="n">
-        <v>163.0251221155829</v>
+        <v>135.2066633894997</v>
       </c>
       <c r="D13" t="n">
         <v>144.3937740351674</v>
@@ -23428,19 +23428,19 @@
         <v>141.1993490398863</v>
       </c>
       <c r="G13" t="n">
-        <v>153.9986144921685</v>
+        <v>163.7692803754138</v>
       </c>
       <c r="H13" t="n">
-        <v>126.4223005837916</v>
+        <v>158.0054735243946</v>
       </c>
       <c r="I13" t="n">
-        <v>119.6456030036103</v>
+        <v>151.2287759442133</v>
       </c>
       <c r="J13" t="n">
-        <v>57.5543081930248</v>
+        <v>89.13748113362782</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>18.04779284283789</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.94034426864943</v>
+        <v>50.35717132804641</v>
       </c>
       <c r="R13" t="n">
-        <v>173.0716923941245</v>
+        <v>141.4885194535215</v>
       </c>
       <c r="S13" t="n">
-        <v>219.7948990539273</v>
+        <v>188.2117261133243</v>
       </c>
       <c r="T13" t="n">
         <v>223.7238904452365</v>
@@ -23495,10 +23495,10 @@
         <v>346.5713641291745</v>
       </c>
       <c r="C14" t="n">
-        <v>289.5265372748609</v>
+        <v>329.1104142367014</v>
       </c>
       <c r="D14" t="n">
-        <v>318.5205640863769</v>
+        <v>278.9366871245363</v>
       </c>
       <c r="E14" t="n">
         <v>345.7678925379557</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.7066404068436</v>
+        <v>74.12276344500296</v>
       </c>
       <c r="S14" t="n">
         <v>172.8575920519392</v>
       </c>
       <c r="T14" t="n">
-        <v>186.9333720298253</v>
+        <v>186.9333720298252</v>
       </c>
       <c r="U14" t="n">
         <v>215.1831753735304</v>
@@ -23558,10 +23558,10 @@
         <v>273.4946142212663</v>
       </c>
       <c r="X14" t="n">
-        <v>293.9847461823223</v>
+        <v>298.7031443161737</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.2099822937583</v>
+        <v>350.0754611217475</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.3707061155612</v>
+        <v>95.50522728757204</v>
       </c>
       <c r="C15" t="n">
         <v>136.5460214540096</v>
@@ -23583,16 +23583,16 @@
         <v>121.4826029210948</v>
       </c>
       <c r="F15" t="n">
-        <v>108.9067348590778</v>
+        <v>108.9067348590777</v>
       </c>
       <c r="G15" t="n">
         <v>101.1810396289045</v>
       </c>
       <c r="H15" t="n">
-        <v>76.07296670219037</v>
+        <v>76.07296670219034</v>
       </c>
       <c r="I15" t="n">
-        <v>53.23415531710898</v>
+        <v>53.23415531710895</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.99535661833703</v>
+        <v>63.99535661833701</v>
       </c>
       <c r="S15" t="n">
         <v>135.5206935695317</v>
@@ -23631,7 +23631,7 @@
         <v>189.7789045466687</v>
       </c>
       <c r="V15" t="n">
-        <v>196.6381096151192</v>
+        <v>196.6381096151191</v>
       </c>
       <c r="W15" t="n">
         <v>175.9486286647729</v>
@@ -23640,7 +23640,7 @@
         <v>130.0266307073308</v>
       </c>
       <c r="Y15" t="n">
-        <v>134.6547394150091</v>
+        <v>169.5202182429982</v>
       </c>
     </row>
     <row r="16">
@@ -23659,22 +23659,22 @@
         <v>112.4529954839062</v>
       </c>
       <c r="E16" t="n">
-        <v>75.4060062842739</v>
+        <v>110.271485112263</v>
       </c>
       <c r="F16" t="n">
         <v>109.2585704886251</v>
       </c>
       <c r="G16" t="n">
-        <v>131.8285018241527</v>
+        <v>131.8285018241526</v>
       </c>
       <c r="H16" t="n">
-        <v>126.0646949731335</v>
+        <v>126.0646949731334</v>
       </c>
       <c r="I16" t="n">
-        <v>119.2879973929522</v>
+        <v>119.2879973929521</v>
       </c>
       <c r="J16" t="n">
-        <v>57.19670258236668</v>
+        <v>57.19670258236665</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.4156887555477</v>
+        <v>10.41568875554767</v>
       </c>
       <c r="R16" t="n">
         <v>101.5470368810228</v>
       </c>
       <c r="S16" t="n">
-        <v>148.2702435408256</v>
+        <v>148.2702435408255</v>
       </c>
       <c r="T16" t="n">
-        <v>191.7831118939754</v>
+        <v>156.9176330659862</v>
       </c>
       <c r="U16" t="n">
         <v>250.1565518221848</v>
@@ -23741,16 +23741,16 @@
         <v>345.7678925379557</v>
       </c>
       <c r="F17" t="n">
-        <v>297.7787480903961</v>
+        <v>370.7135682074053</v>
       </c>
       <c r="G17" t="n">
-        <v>296.3350600296377</v>
+        <v>379.1402599808289</v>
       </c>
       <c r="H17" t="n">
-        <v>220.5071246302698</v>
+        <v>303.312324581461</v>
       </c>
       <c r="I17" t="n">
-        <v>91.50821208490859</v>
+        <v>174.3134120360998</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.7066404068436</v>
+        <v>30.90144045565233</v>
       </c>
       <c r="S17" t="n">
-        <v>172.8575920519392</v>
+        <v>90.05239210074798</v>
       </c>
       <c r="T17" t="n">
-        <v>186.9333720298253</v>
+        <v>104.128172078634</v>
       </c>
       <c r="U17" t="n">
-        <v>215.1831753735304</v>
+        <v>142.2483552565212</v>
       </c>
       <c r="V17" t="n">
         <v>291.5897809358288</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>121.4312426168891</v>
+        <v>130.3707061155612</v>
       </c>
       <c r="C18" t="n">
         <v>136.5460214540096</v>
@@ -23817,7 +23817,7 @@
         <v>111.2825880303326</v>
       </c>
       <c r="E18" t="n">
-        <v>38.67740296990362</v>
+        <v>121.4826029210948</v>
       </c>
       <c r="F18" t="n">
         <v>108.9067348590778</v>
@@ -23826,10 +23826,10 @@
         <v>101.1810396289045</v>
       </c>
       <c r="H18" t="n">
-        <v>76.07296670219037</v>
+        <v>76.07296670219034</v>
       </c>
       <c r="I18" t="n">
-        <v>53.23415531710898</v>
+        <v>53.23415531710896</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>63.99535661833701</v>
       </c>
       <c r="S18" t="n">
-        <v>135.5206935695317</v>
+        <v>52.71549361834049</v>
       </c>
       <c r="T18" t="n">
         <v>164.0022511605155</v>
       </c>
       <c r="U18" t="n">
-        <v>189.7789045466687</v>
+        <v>106.9737045954775</v>
       </c>
       <c r="V18" t="n">
         <v>113.8329096639279</v>
       </c>
       <c r="W18" t="n">
-        <v>215.5325056266135</v>
+        <v>142.5976855096043</v>
       </c>
       <c r="X18" t="n">
-        <v>86.80530771798016</v>
+        <v>169.6105076691713</v>
       </c>
       <c r="Y18" t="n">
-        <v>169.5202182429983</v>
+        <v>169.5202182429982</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>143.6695026476312</v>
       </c>
       <c r="C19" t="n">
-        <v>48.27914361313051</v>
+        <v>131.0843435643217</v>
       </c>
       <c r="D19" t="n">
         <v>112.4529954839062</v>
@@ -23899,19 +23899,19 @@
         <v>110.2714851122631</v>
       </c>
       <c r="F19" t="n">
-        <v>26.45337053743393</v>
+        <v>109.2585704886251</v>
       </c>
       <c r="G19" t="n">
-        <v>131.8285018241527</v>
+        <v>131.8285018241526</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3265774384909</v>
+        <v>126.0646949731335</v>
       </c>
       <c r="I19" t="n">
-        <v>36.48279744176097</v>
+        <v>119.2879973929522</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>57.19670258236665</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.99956571738829</v>
+        <v>49.99956571738826</v>
       </c>
       <c r="R19" t="n">
         <v>141.1309138428634</v>
       </c>
       <c r="S19" t="n">
-        <v>187.8541205026661</v>
+        <v>105.0489205514749</v>
       </c>
       <c r="T19" t="n">
-        <v>191.7831118939754</v>
+        <v>108.9779119427842</v>
       </c>
       <c r="U19" t="n">
-        <v>250.1565518221848</v>
+        <v>167.3513518709935</v>
       </c>
       <c r="V19" t="n">
         <v>215.9751657895219</v>
@@ -23956,7 +23956,7 @@
         <v>189.547177854731</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.4221758177887</v>
+        <v>109.4873557007795</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>344.5639745880433</v>
+        <v>103.5496857103842</v>
       </c>
       <c r="C20" t="n">
-        <v>327.1030246955703</v>
+        <v>86.08873581791119</v>
       </c>
       <c r="D20" t="n">
-        <v>316.5131745452457</v>
+        <v>316.5131745452456</v>
       </c>
       <c r="E20" t="n">
         <v>343.7605029968245</v>
       </c>
       <c r="F20" t="n">
-        <v>127.6918897886151</v>
+        <v>368.7061786662741</v>
       </c>
       <c r="G20" t="n">
-        <v>377.1328704396978</v>
+        <v>377.1328704396977</v>
       </c>
       <c r="H20" t="n">
-        <v>287.6421933391834</v>
+        <v>301.3049350403298</v>
       </c>
       <c r="I20" t="n">
-        <v>172.3060224949686</v>
+        <v>130.8708393623346</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>111.6992508657124</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>184.925982488694</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>213.1757858323992</v>
       </c>
       <c r="V20" t="n">
-        <v>289.5823913946977</v>
+        <v>289.5823913946976</v>
       </c>
       <c r="W20" t="n">
-        <v>311.0711016419758</v>
+        <v>311.0711016419757</v>
       </c>
       <c r="X20" t="n">
-        <v>331.5612336030318</v>
+        <v>331.5612336030317</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0680715806163</v>
+        <v>107.0537827029572</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.36331657443</v>
       </c>
       <c r="C21" t="n">
-        <v>134.5386319128785</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>109.2751984892015</v>
       </c>
       <c r="E21" t="n">
-        <v>119.4752133799637</v>
+        <v>119.4752133799636</v>
       </c>
       <c r="F21" t="n">
-        <v>106.8993453179466</v>
+        <v>69.64019424745391</v>
       </c>
       <c r="G21" t="n">
-        <v>99.17365008777335</v>
+        <v>99.17365008777334</v>
       </c>
       <c r="H21" t="n">
-        <v>74.0655771610592</v>
+        <v>74.06557716105917</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2267657759778</v>
+        <v>51.22676577597778</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>61.98796707720586</v>
+        <v>61.98796707720584</v>
       </c>
       <c r="S21" t="n">
         <v>133.5133040284005</v>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>124.078362292926</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>167.5128287018671</v>
       </c>
     </row>
     <row r="22">
@@ -24127,16 +24127,16 @@
         <v>141.6621131065</v>
       </c>
       <c r="C22" t="n">
-        <v>36.93616799469092</v>
+        <v>129.0769540231905</v>
       </c>
       <c r="D22" t="n">
-        <v>110.4456059427751</v>
+        <v>11.12943817440822</v>
       </c>
       <c r="E22" t="n">
         <v>108.2640955711319</v>
       </c>
       <c r="F22" t="n">
-        <v>107.251180947494</v>
+        <v>107.2511809474939</v>
       </c>
       <c r="G22" t="n">
         <v>129.8211122830215</v>
@@ -24148,7 +24148,7 @@
         <v>117.280607851821</v>
       </c>
       <c r="J22" t="n">
-        <v>55.1893130412355</v>
+        <v>55.18931304123548</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.99217617625711</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>139.1235243017322</v>
       </c>
       <c r="S22" t="n">
-        <v>185.846730961535</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>189.7757223528442</v>
@@ -24187,10 +24187,10 @@
         <v>213.9677762483907</v>
       </c>
       <c r="W22" t="n">
-        <v>7.338842383494665</v>
+        <v>248.3531312611537</v>
       </c>
       <c r="X22" t="n">
-        <v>187.5397883135999</v>
+        <v>187.5397883135998</v>
       </c>
       <c r="Y22" t="n">
         <v>180.4147862766575</v>
@@ -24212,19 +24212,19 @@
         <v>312.5532301306937</v>
       </c>
       <c r="E23" t="n">
-        <v>336.7310143566778</v>
+        <v>339.8005585822726</v>
       </c>
       <c r="F23" t="n">
-        <v>364.7462342517222</v>
+        <v>187.5319442621982</v>
       </c>
       <c r="G23" t="n">
-        <v>373.1729260251458</v>
+        <v>132.1586371474868</v>
       </c>
       <c r="H23" t="n">
-        <v>297.3449906257779</v>
+        <v>56.33070174811888</v>
       </c>
       <c r="I23" t="n">
-        <v>168.3460780804167</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>107.7393064511605</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>166.8902580962561</v>
@@ -24260,16 +24260,16 @@
         <v>180.9660380741421</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>209.2158414178473</v>
       </c>
       <c r="V23" t="n">
-        <v>44.60815810248664</v>
+        <v>285.6224469801457</v>
       </c>
       <c r="W23" t="n">
-        <v>66.09686834976475</v>
+        <v>307.1111572274238</v>
       </c>
       <c r="X23" t="n">
-        <v>86.58700031082077</v>
+        <v>327.6012891884798</v>
       </c>
       <c r="Y23" t="n">
         <v>344.1081271660644</v>
@@ -24285,25 +24285,25 @@
         <v>124.4033721598781</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>130.5786874983265</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.3152540746495</v>
       </c>
       <c r="E24" t="n">
-        <v>34.70923158442928</v>
+        <v>115.5152689654117</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>102.9394009033947</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70.10563274650724</v>
+        <v>70.10563274650725</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>47.26682136142587</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.02802266265392</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>129.5533596138486</v>
+        <v>43.62727284204708</v>
       </c>
       <c r="T24" t="n">
-        <v>158.0349172048324</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>183.8115705909856</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>190.6707756594361</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>209.5651716709304</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>125.1170096086386</v>
       </c>
       <c r="D25" t="n">
-        <v>106.4856615282231</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>104.30415115658</v>
@@ -24379,13 +24379,13 @@
         <v>125.8611678684696</v>
       </c>
       <c r="H25" t="n">
-        <v>120.0973610174504</v>
+        <v>52.02788506228376</v>
       </c>
       <c r="I25" t="n">
         <v>113.3206634372691</v>
       </c>
       <c r="J25" t="n">
-        <v>51.22936862668356</v>
+        <v>51.22936862668357</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24406,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.03223176170517</v>
+        <v>44.03223176170518</v>
       </c>
       <c r="R25" t="n">
         <v>135.1635798871803</v>
       </c>
       <c r="S25" t="n">
-        <v>181.886786546983</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>12.95369780696731</v>
+        <v>185.8157779382923</v>
       </c>
       <c r="U25" t="n">
         <v>244.1892178665017</v>
@@ -24427,7 +24427,7 @@
         <v>244.3931868466018</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5798438990479</v>
       </c>
       <c r="Y25" t="n">
         <v>176.4548418621056</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.93257330834786</v>
+        <v>84.9325733083478</v>
       </c>
       <c r="C26" t="n">
-        <v>67.47162341587477</v>
+        <v>308.4859122935338</v>
       </c>
       <c r="D26" t="n">
-        <v>297.8960621432093</v>
+        <v>297.8960621432092</v>
       </c>
       <c r="E26" t="n">
-        <v>325.1433905947881</v>
+        <v>112.8580049513459</v>
       </c>
       <c r="F26" t="n">
-        <v>109.0747773865787</v>
+        <v>350.0890662642377</v>
       </c>
       <c r="G26" t="n">
-        <v>358.5157580376614</v>
+        <v>358.5157580376613</v>
       </c>
       <c r="H26" t="n">
-        <v>70.40243699485137</v>
+        <v>282.6878226382934</v>
       </c>
       <c r="I26" t="n">
         <v>153.6889100929322</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.08213846367599</v>
+        <v>93.08213846367596</v>
       </c>
       <c r="S26" t="n">
         <v>152.2330901087716</v>
       </c>
       <c r="T26" t="n">
-        <v>166.3088700866577</v>
+        <v>166.3088700866576</v>
       </c>
       <c r="U26" t="n">
         <v>194.5586734303628</v>
@@ -24503,10 +24503,10 @@
         <v>270.9652789926612</v>
       </c>
       <c r="W26" t="n">
-        <v>292.4539892399393</v>
+        <v>51.43970036228023</v>
       </c>
       <c r="X26" t="n">
-        <v>312.9441212009954</v>
+        <v>71.92983232333626</v>
       </c>
       <c r="Y26" t="n">
         <v>329.4509591785799</v>
@@ -24522,25 +24522,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>89.54063264517598</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>90.65808608716506</v>
+        <v>90.65808608716503</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>100.8581009779272</v>
       </c>
       <c r="F27" t="n">
-        <v>88.28223291591019</v>
+        <v>88.28223291591016</v>
       </c>
       <c r="G27" t="n">
-        <v>80.55653768573694</v>
+        <v>80.55653768573691</v>
       </c>
       <c r="H27" t="n">
-        <v>55.44846475902277</v>
+        <v>55.44846475902274</v>
       </c>
       <c r="I27" t="n">
-        <v>32.60965337394138</v>
+        <v>32.60965337394136</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>43.37085467516941</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>114.8961916263641</v>
       </c>
       <c r="T27" t="n">
-        <v>143.3777492173479</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>169.1544026035011</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>102.5205540053962</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>148.9860057260038</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>148.8957162998307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>123.0450007044636</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.4598416211541</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>91.82849354073863</v>
       </c>
       <c r="E28" t="n">
-        <v>89.64698316909548</v>
+        <v>89.64698316909545</v>
       </c>
       <c r="F28" t="n">
-        <v>88.63406854545755</v>
+        <v>54.16443746443705</v>
       </c>
       <c r="G28" t="n">
-        <v>111.2039998809851</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>105.4401930299659</v>
       </c>
       <c r="I28" t="n">
-        <v>98.66349544978459</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>36.57220063919908</v>
+        <v>36.57220063919905</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24643,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.37506377422069</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>120.5064118996958</v>
       </c>
       <c r="S28" t="n">
-        <v>167.2296185594986</v>
+        <v>167.2296185594985</v>
       </c>
       <c r="T28" t="n">
         <v>171.1586099508078</v>
@@ -24661,10 +24661,10 @@
         <v>195.3506638463543</v>
       </c>
       <c r="W28" t="n">
-        <v>112.4344886278995</v>
+        <v>229.7360188591173</v>
       </c>
       <c r="X28" t="n">
-        <v>168.9226759115635</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>161.7976738746211</v>
@@ -24680,7 +24680,7 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>251.0300579933799</v>
+        <v>10.01576911572084</v>
       </c>
       <c r="D29" t="n">
         <v>240.4402078430553</v>
@@ -24689,16 +24689,16 @@
         <v>267.6875362946341</v>
       </c>
       <c r="F29" t="n">
-        <v>154.7824076360268</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G29" t="n">
         <v>60.04561485984834</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>94.7772358086177</v>
@@ -24740,13 +24740,13 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>255.4882669008414</v>
+        <v>14.47397802318233</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.9951048784259</v>
+        <v>95.33600339850594</v>
       </c>
     </row>
     <row r="30">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>26.26697153215532</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>34.37263924058472</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F31" t="n">
         <v>31.17821424530361</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>61.76456897637251</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>137.8948095462003</v>
@@ -24920,22 +24920,22 @@
         <v>251.0300579933799</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F32" t="n">
-        <v>52.26888110088618</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>94.7772358086177</v>
@@ -24974,13 +24974,13 @@
         <v>137.1028191302088</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>234.9981349397854</v>
+        <v>138.789768713124</v>
       </c>
       <c r="X32" t="n">
-        <v>255.4882669008414</v>
+        <v>14.47397802318233</v>
       </c>
       <c r="Y32" t="n">
         <v>271.9951048784259</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G34" t="n">
         <v>53.74814558083112</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>151.3717191103689</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W34" t="n">
-        <v>109.3562008924071</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25154,19 @@
         <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>253.0374475345111</v>
+        <v>104.4181090621333</v>
       </c>
       <c r="D35" t="n">
-        <v>33.01648144713047</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>269.6949258357653</v>
+        <v>60.2638098987093</v>
       </c>
       <c r="F35" t="n">
-        <v>85.20948556815895</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>93.63617734158257</v>
       </c>
       <c r="H35" t="n">
         <v>227.2393578792707</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25208,13 +25208,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
         <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>189.8627209752256</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
         <v>257.4956564419726</v>
@@ -25239,13 +25239,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
         <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>25.10807292671417</v>
+        <v>16.1228977934344</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>36.42446108562477</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.8288165958663</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>36.38002878171589</v>
@@ -25321,16 +25321,16 @@
         <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>32.04128361634319</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.6320531452883</v>
+        <v>73.02792992571756</v>
       </c>
       <c r="C38" t="n">
-        <v>55.56698003324459</v>
+        <v>256.997391949063</v>
       </c>
       <c r="D38" t="n">
-        <v>44.97712988291997</v>
+        <v>246.4075417987384</v>
       </c>
       <c r="E38" t="n">
-        <v>72.22445833449876</v>
+        <v>273.6548702503172</v>
       </c>
       <c r="F38" t="n">
         <v>298.6005459197669</v>
@@ -25409,7 +25409,7 @@
         <v>231.1993022938226</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2003897484614</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.59361811920515</v>
       </c>
       <c r="S38" t="n">
         <v>100.7445697643008</v>
@@ -25445,19 +25445,19 @@
         <v>114.8203497421868</v>
       </c>
       <c r="U38" t="n">
-        <v>143.070153085892</v>
+        <v>143.0701530858919</v>
       </c>
       <c r="V38" t="n">
-        <v>219.4767586481904</v>
+        <v>144.2572415811989</v>
       </c>
       <c r="W38" t="n">
-        <v>240.9654688954685</v>
+        <v>39.53505697964999</v>
       </c>
       <c r="X38" t="n">
-        <v>261.4556008565245</v>
+        <v>60.02518894070602</v>
       </c>
       <c r="Y38" t="n">
-        <v>277.9624388341091</v>
+        <v>277.962438834109</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58.25768382792282</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>64.43299916637122</v>
+        <v>64.4329991663712</v>
       </c>
       <c r="D39" t="n">
-        <v>39.16956574269423</v>
+        <v>39.16956574269422</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>49.36958063345641</v>
       </c>
       <c r="F39" t="n">
-        <v>36.79371257143936</v>
+        <v>36.79371257143934</v>
       </c>
       <c r="G39" t="n">
-        <v>29.06801734126611</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.959944414551941</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>3.470472487697364</v>
+        <v>45.38653743798157</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.55648035999278</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.97132127668331</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.33997319626783</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>38.15846282462465</v>
+        <v>38.15846282462464</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>59.71547953651424</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.95167268549505</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>69.01789155522495</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.7410982150277</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>143.8621435018835</v>
+        <v>139.0292239712623</v>
       </c>
       <c r="W40" t="n">
-        <v>80.7636437362674</v>
+        <v>178.2474985146465</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>117.4341555670926</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.3091535301503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,16 +25631,16 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D41" t="n">
-        <v>107.0773198428001</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>292.5337372208467</v>
+        <v>134.3246482943789</v>
       </c>
       <c r="F41" t="n">
         <v>317.4794128902964</v>
       </c>
       <c r="G41" t="n">
-        <v>325.90610466372</v>
+        <v>167.6970157372522</v>
       </c>
       <c r="H41" t="n">
         <v>250.0781692643521</v>
@@ -25682,16 +25682,16 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U41" t="n">
-        <v>22.5984545299886</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>80.146536692252</v>
+        <v>99.00506009228701</v>
       </c>
       <c r="W41" t="n">
-        <v>259.8443358659979</v>
+        <v>101.6352469395301</v>
       </c>
       <c r="X41" t="n">
-        <v>122.1253789005861</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y41" t="n">
         <v>296.8413058046385</v>
@@ -25710,10 +25710,10 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>55.6725795419688</v>
@@ -25755,22 +25755,22 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U42" t="n">
-        <v>134.4848174533396</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>162.2983503095045</v>
+        <v>141.6773889074479</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C43" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
         <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>56.02441517151617</v>
+        <v>29.8691283088278</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,10 +25804,10 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
-        <v>26.92281175006183</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>196.9223965050758</v>
+        <v>38.71330757860801</v>
       </c>
       <c r="V43" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
-        <v>38.9172765587081</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
         <v>129.1880205006797</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295198.1579529891</v>
+        <v>295198.1579529892</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370547.7818063735</v>
+        <v>370547.7818063737</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>496224.384752307</v>
+        <v>496224.3847523072</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>505223.8374292532</v>
+        <v>505223.8374292529</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631420.0632193874</v>
+        <v>631420.0632193875</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563847.9126038497</v>
+        <v>563847.9126038495</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094825</v>
       </c>
       <c r="C2" t="n">
         <v>696384.8879094828</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094828</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="E2" t="n">
         <v>207267.953744429</v>
       </c>
       <c r="F2" t="n">
-        <v>277127.2989966553</v>
+        <v>277127.2989966554</v>
       </c>
       <c r="G2" t="n">
         <v>297943.0027995578</v>
       </c>
       <c r="H2" t="n">
-        <v>365921.0931365069</v>
+        <v>365921.0931365071</v>
       </c>
       <c r="I2" t="n">
         <v>374420.5762202887</v>
       </c>
       <c r="J2" t="n">
-        <v>405880.1974482987</v>
+        <v>405880.1974482989</v>
       </c>
       <c r="K2" t="n">
-        <v>527706.0841041101</v>
+        <v>527706.0841041103</v>
       </c>
       <c r="L2" t="n">
-        <v>527706.0841041098</v>
+        <v>527706.0841041103</v>
       </c>
       <c r="M2" t="n">
-        <v>510905.8645024624</v>
+        <v>510905.8645024622</v>
       </c>
       <c r="N2" t="n">
-        <v>499475.2343645756</v>
+        <v>499475.2343645758</v>
       </c>
       <c r="O2" t="n">
-        <v>442065.7713771179</v>
+        <v>442065.7713771182</v>
       </c>
       <c r="P2" t="n">
         <v>182762.5894034589</v>
@@ -26375,19 +26375,19 @@
         <v>12807.39979669534</v>
       </c>
       <c r="F3" t="n">
-        <v>27845.03256139802</v>
+        <v>27845.03256139804</v>
       </c>
       <c r="G3" t="n">
         <v>11846.31631153617</v>
       </c>
       <c r="H3" t="n">
-        <v>44292.14770706631</v>
+        <v>44292.1477070663</v>
       </c>
       <c r="I3" t="n">
-        <v>3167.955531641553</v>
+        <v>3167.95553164153</v>
       </c>
       <c r="J3" t="n">
-        <v>15103.09357642355</v>
+        <v>15103.09357642358</v>
       </c>
       <c r="K3" t="n">
         <v>71517.30628113206</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>82963.61289695336</v>
+        <v>82139.73036385672</v>
       </c>
       <c r="F4" t="n">
-        <v>128903.7563170154</v>
+        <v>128064.8522065778</v>
       </c>
       <c r="G4" t="n">
-        <v>138118.6010312226</v>
+        <v>137205.4961521432</v>
       </c>
       <c r="H4" t="n">
-        <v>166238.8368185546</v>
+        <v>165055.5370569132</v>
       </c>
       <c r="I4" t="n">
-        <v>171953.4926638155</v>
+        <v>170770.192902174</v>
       </c>
       <c r="J4" t="n">
-        <v>193105.4740923542</v>
+        <v>191922.1743307128</v>
       </c>
       <c r="K4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="L4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="M4" t="n">
-        <v>267245.2985403736</v>
+        <v>266115.9375995768</v>
       </c>
       <c r="N4" t="n">
-        <v>260446.4674364817</v>
+        <v>259330.7703711178</v>
       </c>
       <c r="O4" t="n">
-        <v>226632.8127959232</v>
+        <v>225590.9305813275</v>
       </c>
       <c r="P4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>2275.170926594271</v>
       </c>
       <c r="F5" t="n">
-        <v>5446.843043111487</v>
+        <v>5446.843043111489</v>
       </c>
       <c r="G5" t="n">
-        <v>8074.699480864005</v>
+        <v>8074.699480864007</v>
       </c>
       <c r="H5" t="n">
         <v>17862.57131892661</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247224.7321838602</v>
+        <v>247984.8892965236</v>
       </c>
       <c r="C6" t="n">
-        <v>247224.7321838602</v>
+        <v>247984.8892965239</v>
       </c>
       <c r="D6" t="n">
-        <v>247224.7321838604</v>
+        <v>247984.8892965238</v>
       </c>
       <c r="E6" t="n">
-        <v>109221.770124186</v>
+        <v>110045.6526572827</v>
       </c>
       <c r="F6" t="n">
-        <v>114931.6670751304</v>
+        <v>115770.571185568</v>
       </c>
       <c r="G6" t="n">
-        <v>139903.3859759349</v>
+        <v>140816.4908550144</v>
       </c>
       <c r="H6" t="n">
-        <v>137527.5372919593</v>
+        <v>138710.837053601</v>
       </c>
       <c r="I6" t="n">
-        <v>181103.6481389181</v>
+        <v>182286.9479005596</v>
       </c>
       <c r="J6" t="n">
-        <v>178243.9364380676</v>
+        <v>179427.2361997091</v>
       </c>
       <c r="K6" t="n">
-        <v>156898.9120106595</v>
+        <v>158082.2117723011</v>
       </c>
       <c r="L6" t="n">
-        <v>228416.2182917912</v>
+        <v>229599.5180534331</v>
       </c>
       <c r="M6" t="n">
-        <v>221491.6325515978</v>
+        <v>222620.9934923943</v>
       </c>
       <c r="N6" t="n">
-        <v>217679.1848890812</v>
+        <v>218794.8819544452</v>
       </c>
       <c r="O6" t="n">
-        <v>198298.3604472798</v>
+        <v>199340.2426618759</v>
       </c>
       <c r="P6" t="n">
-        <v>112122.6186953551</v>
+        <v>112882.7758080187</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>4.221698983044965</v>
       </c>
       <c r="F2" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="G2" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="H2" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="I2" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="J2" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26802,7 +26802,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>82.80519995119121</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26917,7 +26917,7 @@
         <v>4.221698983044966</v>
       </c>
       <c r="F2" t="n">
-        <v>31.94077855126113</v>
+        <v>31.94077855126116</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>2.007389541131175</v>
       </c>
       <c r="I2" t="n">
-        <v>3.959944414551941</v>
+        <v>3.959944414551913</v>
       </c>
       <c r="J2" t="n">
-        <v>18.87886697052944</v>
+        <v>18.87886697052947</v>
       </c>
       <c r="K2" t="n">
         <v>89.39663285141508</v>
@@ -27024,7 +27024,7 @@
         <v>8.000704021237567</v>
       </c>
       <c r="G4" t="n">
-        <v>43.22132298935063</v>
+        <v>43.22132298935064</v>
       </c>
       <c r="H4" t="n">
         <v>158.2090889264678</v>
@@ -27154,7 +27154,7 @@
         <v>4.221698983044966</v>
       </c>
       <c r="K2" t="n">
-        <v>31.94077855126113</v>
+        <v>31.94077855126116</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>2.007389541131175</v>
       </c>
       <c r="N2" t="n">
-        <v>3.959944414551941</v>
+        <v>3.959944414551913</v>
       </c>
       <c r="O2" t="n">
-        <v>18.87886697052944</v>
+        <v>18.87886697052947</v>
       </c>
       <c r="P2" t="n">
         <v>89.39663285141508</v>
@@ -27270,7 +27270,7 @@
         <v>8.000704021237567</v>
       </c>
       <c r="O4" t="n">
-        <v>43.22132298935063</v>
+        <v>43.22132298935064</v>
       </c>
       <c r="P4" t="n">
         <v>158.2090889264678</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="C14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="D14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="E14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="F14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="G14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="H14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="I14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="S14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="T14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="U14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="V14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="W14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="X14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="D15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="E15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="F15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="G15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="H15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="I15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="S15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="T15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="U15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="V15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="W15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="X15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="C16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="E16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="F16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="G16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="H16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="J16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="L16" t="n">
-        <v>11.99385170152445</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>16.12084121879266</v>
+        <v>14.22170721189383</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="R16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="S16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="T16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="U16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="V16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="W16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="X16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430613</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="D17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="E17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="F17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="G17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="H17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="S17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="T17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="U17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="V17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="W17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="X17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="C18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="D18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="E18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="F18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="G18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="H18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="I18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="S18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="T18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="U18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="V18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="W18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="X18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="C19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="D19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="E19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="F19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="G19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="H19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="I19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="J19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="K19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="L19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="M19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="N19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="O19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="R19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="S19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="T19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="U19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="V19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="W19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="X19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.1624775343061</v>
+        <v>36.16247753430612</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="C20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="D20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="E20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="F20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="G20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="H20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="I20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="S20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="T20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="U20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="V20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="W20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="X20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="C21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="D21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="E21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="F21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="G21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="H21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="S21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="T21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="U21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="V21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="W21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="X21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="C22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="D22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="E22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="F22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="G22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="H22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="I22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="J22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="K22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="L22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="M22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="N22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="O22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="P22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="R22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="S22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="T22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="U22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="V22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="W22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="X22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.16986707543727</v>
+        <v>38.1698670754373</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="C23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="D23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="E23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="F23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="G23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="H23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="I23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="S23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="T23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="U23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="V23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="W23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="X23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="C24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="D24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="E24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="F24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="G24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="H24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="I24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="S24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="T24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="U24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="V24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="W24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="X24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="C25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="D25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="E25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="F25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="G25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="H25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="I25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="J25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="K25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="L25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="M25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="N25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="O25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="P25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="R25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="S25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="T25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="U25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="V25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="W25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="X25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.12981148998922</v>
+        <v>42.12981148998921</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="C26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="D26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="E26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="F26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="G26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="H26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="I26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="S26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="T26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="U26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="V26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="W26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="X26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="C27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="D27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="E27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="F27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="G27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="H27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="I27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="S27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="T27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="U27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="V27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="W27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="X27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="Y27" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="C28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="D28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="E28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="F28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="G28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="H28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="I28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="J28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="K28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="L28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="M28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="N28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="O28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="P28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="R28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="S28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="T28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="U28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="V28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="W28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="X28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78697947747369</v>
+        <v>56.78697947747372</v>
       </c>
     </row>
     <row r="29">
@@ -30645,7 +30645,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>89.39663285141508</v>
+        <v>68.56063507308873</v>
       </c>
       <c r="M43" t="n">
         <v>89.39663285141508</v>
@@ -30654,13 +30654,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="O43" t="n">
-        <v>65.3260454733681</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.39663285141508</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>89.39663285141508</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>31.58317294060302</v>
+        <v>30.3070851450231</v>
       </c>
       <c r="L11" t="n">
         <v>31.58317294060302</v>
       </c>
       <c r="M11" t="n">
-        <v>30.3070851450231</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30.3070851450231</v>
+      </c>
+      <c r="N12" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>30.3070851450231</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O14" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>13.89298570842328</v>
       </c>
       <c r="L16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
         <v>39.58387696184059</v>
@@ -35820,7 +35820,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
-        <v>13.39940048368615</v>
+        <v>11.50026647678732</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>82.80519995119121</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="L17" t="n">
-        <v>82.80519995119121</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="M17" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>79.45953530669867</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>79.45953530669864</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="M18" t="n">
-        <v>9.364021656871094</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="N18" t="n">
-        <v>82.80519995119121</v>
+        <v>82.80519995119123</v>
       </c>
       <c r="O18" t="n">
-        <v>82.80519995119121</v>
+        <v>79.45953530669864</v>
       </c>
       <c r="P18" t="n">
-        <v>82.80519995119121</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>13.89298570842325</v>
+        <v>13.89298570842327</v>
       </c>
       <c r="L19" t="n">
-        <v>63.75250279462224</v>
+        <v>63.75250279462226</v>
       </c>
       <c r="M19" t="n">
-        <v>75.74635449614669</v>
+        <v>75.74635449614671</v>
       </c>
       <c r="N19" t="n">
-        <v>80.2946499135347</v>
+        <v>80.29464991353471</v>
       </c>
       <c r="O19" t="n">
-        <v>60.74760544834577</v>
+        <v>60.74760544834579</v>
       </c>
       <c r="P19" t="n">
-        <v>33.44103679919959</v>
+        <v>33.44103679919961</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15.90037524955442</v>
+        <v>15.90037524955444</v>
       </c>
       <c r="L22" t="n">
-        <v>65.75989233575342</v>
+        <v>65.75989233575343</v>
       </c>
       <c r="M22" t="n">
-        <v>77.75374403727787</v>
+        <v>77.75374403727788</v>
       </c>
       <c r="N22" t="n">
-        <v>82.30203945466587</v>
+        <v>82.30203945466589</v>
       </c>
       <c r="O22" t="n">
-        <v>62.75499498947695</v>
+        <v>62.75499498947697</v>
       </c>
       <c r="P22" t="n">
-        <v>35.44842634033076</v>
+        <v>35.44842634033078</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.51748765159084</v>
+        <v>34.51748765159087</v>
       </c>
       <c r="L28" t="n">
-        <v>84.37700473778983</v>
+        <v>84.37700473778986</v>
       </c>
       <c r="M28" t="n">
-        <v>96.37085643931428</v>
+        <v>96.37085643931431</v>
       </c>
       <c r="N28" t="n">
         <v>100.9191518567023</v>
       </c>
       <c r="O28" t="n">
-        <v>81.37210739151337</v>
+        <v>81.3721073915134</v>
       </c>
       <c r="P28" t="n">
-        <v>54.06553874236718</v>
+        <v>54.06553874236721</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,10 +37078,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>79.30085430406892</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37318,10 +37318,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>35.38155020273022</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>209.431115937056</v>
       </c>
       <c r="M36" t="n">
         <v>209.431115937056</v>
@@ -37397,13 +37397,13 @@
         <v>209.431115937056</v>
       </c>
       <c r="O36" t="n">
-        <v>209.431115937056</v>
+        <v>130.8737390170444</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.48089144126514</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>172.9901514080712</v>
+        <v>159.5003022981001</v>
       </c>
       <c r="N38" t="n">
         <v>201.4304119158185</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>123.1962957643416</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="N39" t="n">
-        <v>201.4304119158185</v>
+        <v>13.51454841633347</v>
       </c>
       <c r="O39" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.91631970527175</v>
+        <v>14.91631970527176</v>
       </c>
       <c r="K40" t="n">
-        <v>86.00600799606167</v>
+        <v>86.00600799606168</v>
       </c>
       <c r="L40" t="n">
         <v>135.8655250822607</v>
@@ -37719,7 +37719,7 @@
         <v>105.554059086838</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.11345657025014</v>
+        <v>22.11345657025015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>158.2090889264678</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>158.2090889264678</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>81.7212888553688</v>
+        <v>158.2090889264678</v>
       </c>
       <c r="M42" t="n">
         <v>158.2090889264678</v>
       </c>
       <c r="N42" t="n">
-        <v>158.2090889264678</v>
+        <v>113.306579743617</v>
       </c>
       <c r="O42" t="n">
-        <v>158.2090889264678</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>116.9866581117312</v>
+        <v>96.15066033340487</v>
       </c>
       <c r="M43" t="n">
         <v>128.9805098132557</v>
@@ -37950,13 +37950,13 @@
         <v>133.5288052306437</v>
       </c>
       <c r="O43" t="n">
-        <v>89.91117338740777</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
         <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.234589599720692</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
